--- a/SportsInviter/Data/Input/Mustangs Blue/PlayerDetails.xlsx
+++ b/SportsInviter/Data/Input/Mustangs Blue/PlayerDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90284496-524E-4416-9F36-BB3FE9DD8797}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2CC934-0E37-4120-9DAA-CCB702056692}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -26,12 +26,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Karthik</t>
-  </si>
-  <si>
-    <t>Akshay</t>
-  </si>
-  <si>
     <t>Akash</t>
   </si>
   <si>
@@ -50,48 +44,15 @@
     <t>Achal</t>
   </si>
   <si>
-    <t>Sameer</t>
-  </si>
-  <si>
-    <t>Kapil</t>
-  </si>
-  <si>
-    <t>Swapnilkumbhare1@gmail.com</t>
-  </si>
-  <si>
-    <t>sameer.shukla@gmail.com</t>
-  </si>
-  <si>
-    <t>gk.iflex@gmail.com</t>
-  </si>
-  <si>
-    <t>Kapil2608@gmail.com</t>
-  </si>
-  <si>
     <t>Adee</t>
   </si>
   <si>
-    <t>adityajuvvala@gmail.com</t>
-  </si>
-  <si>
-    <t>Akshaymishrautd@gmail.com</t>
-  </si>
-  <si>
-    <t>Avbedse@gmail.com</t>
-  </si>
-  <si>
     <t>6415 Escena blvd, Irving TX 75039</t>
   </si>
   <si>
-    <t>thiru.karasu79@gmail.com</t>
-  </si>
-  <si>
     <t>9819 W Valley Ranch Pkwy, Irving, TX 75063</t>
   </si>
   <si>
-    <t>Pradeeprai4130@gmail.com</t>
-  </si>
-  <si>
     <t>6201 Breeze Bay pt, Fort Worth 76131</t>
   </si>
   <si>
@@ -101,9 +62,6 @@
     <t>2112 Commons Way, Prosper, TX 75078</t>
   </si>
   <si>
-    <t>venkatmala87@gmail.com</t>
-  </si>
-  <si>
     <t>5712 Remington Ridge, Fort Worth,TX,76132</t>
   </si>
   <si>
@@ -113,25 +71,34 @@
     <t>9020 McFarland way ,Fort worth TX 76244</t>
   </si>
   <si>
-    <t>achalkumar@gmail.com</t>
-  </si>
-  <si>
     <t>562 Homewood Dr, Coppell TX, 75019</t>
   </si>
   <si>
     <t>2301 presidio vista dr fort worth tx 76177</t>
   </si>
   <si>
-    <t>Yadav.hari@gmail.com</t>
-  </si>
-  <si>
-    <t>Arun</t>
-  </si>
-  <si>
     <t>6410 Breeze Bay Pt, Fort Worth 76131</t>
   </si>
   <si>
-    <t>Swapnil blue</t>
+    <t>Swarabh</t>
+  </si>
+  <si>
+    <t>Samesh</t>
+  </si>
+  <si>
+    <t>Aruna</t>
+  </si>
+  <si>
+    <t>Kathir</t>
+  </si>
+  <si>
+    <t>Shivam</t>
+  </si>
+  <si>
+    <t>Abi</t>
+  </si>
+  <si>
+    <t>aruncyclopse007@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -205,14 +172,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -555,7 +521,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,161 +544,153 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{17704D96-D995-4992-B596-7BA1A34E29EF}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{7899E6B0-FB73-4135-ACA0-08778FA4B7F7}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{65AA5CB9-1E0F-4E8A-AC3C-2E8333BA1936}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{6713BDEC-ECED-4F30-8878-33B5196CE2B0}"/>
-    <hyperlink ref="B14" r:id="rId5" xr:uid="{70A52199-144B-45C7-AF95-D94A62C9E764}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{D8BFBBAF-FE77-487E-A0B9-FD98333EA55B}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{0423DD56-1238-4E9D-BB20-0043A5AD7895}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{77EA9515-D535-4C38-8224-BCA41B6BA818}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{4362DC90-621D-471C-868C-76B2A11B2BB7}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{A6C287D4-CD42-4934-9060-24CB83EEE46C}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{29C8B4D8-B9D9-4A28-A904-321A3348D344}"/>
-    <hyperlink ref="B11" r:id="rId12" xr:uid="{05936C3F-B44B-412F-8904-FBDFA707B410}"/>
+    <hyperlink ref="B3:B14" r:id="rId2" display="aruncyclopse007@gmail.com" xr:uid="{65958DEF-736F-4A19-BDE5-4ED6DFD11D32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>